--- a/bots/crawl_ch/output/clothes_2022-09-17.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-09-17.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:26</t>
+          <t>2022-09-17 21:00:11</t>
         </is>
       </c>
     </row>
